--- a/Resources/budget_data markup.xlsx
+++ b/Resources/budget_data markup.xlsx
@@ -1,21 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bosko\BootCamp\Week3\PyBank_MBoscia\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bosko\BootCamp\Week3\PyBank_MBoscia\HmWk3_PyBank\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{D86B8EE9-D49A-44A3-A53D-50F9DA16801F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69402430-41C2-4756-A170-4C611B85D087}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="13425" windowHeight="6585"/>
+    <workbookView xWindow="18750" yWindow="525" windowWidth="8880" windowHeight="13680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="budget_data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -49,7 +60,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -886,1006 +897,1353 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I87"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44206</v>
       </c>
       <c r="B2">
         <v>867884</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G2" s="2">
+        <f>SUM(B:B)</f>
         <v>38382578</v>
       </c>
-      <c r="G2" s="2">
-        <v>446309</v>
-      </c>
       <c r="H2" s="2">
+        <f>AVERAGE(B:B)</f>
+        <v>446309.04651162791</v>
+      </c>
+      <c r="I2" s="2">
+        <f>MIN(D:D)</f>
         <v>-2196167</v>
       </c>
-      <c r="I2" s="2">
+      <c r="J2" s="2">
+        <f>MAX(D:D)</f>
         <v>1926159</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44237</v>
       </c>
       <c r="B3">
         <v>984655</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3">
+        <f>B2</f>
+        <v>867884</v>
+      </c>
+      <c r="D3" s="2">
         <v>116771</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G3" s="2">
+        <f>SUM(D:D)</f>
         <v>-196785</v>
       </c>
-      <c r="G3" s="2">
-        <v>-2288</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H3" s="2">
+        <f>AVERAGE(D:D)</f>
+        <v>-2288.1976744186045</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44265</v>
       </c>
       <c r="B4">
         <v>322013</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4">
+        <f t="shared" ref="C4:C67" si="0">B3</f>
+        <v>984655</v>
+      </c>
+      <c r="D4" s="2">
         <v>-662642</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44296</v>
       </c>
       <c r="B5">
         <v>-69417</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>322013</v>
+      </c>
+      <c r="D5" s="2">
         <v>-391430</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44326</v>
       </c>
       <c r="B6">
         <v>310503</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>-69417</v>
+      </c>
+      <c r="D6" s="2">
         <v>379920</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44357</v>
       </c>
       <c r="B7">
         <v>522857</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>310503</v>
+      </c>
+      <c r="D7" s="2">
         <v>212354</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44387</v>
       </c>
       <c r="B8">
         <v>1033096</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>522857</v>
+      </c>
+      <c r="D8" s="2">
         <v>510239</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44418</v>
       </c>
       <c r="B9">
         <v>604885</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>1033096</v>
+      </c>
+      <c r="D9" s="2">
         <v>-428211</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44449</v>
       </c>
       <c r="B10">
         <v>-216386</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>604885</v>
+      </c>
+      <c r="D10" s="2">
         <v>-821271</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44479</v>
       </c>
       <c r="B11">
         <v>477532</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>-216386</v>
+      </c>
+      <c r="D11" s="2">
         <v>693918</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44510</v>
       </c>
       <c r="B12">
         <v>893810</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>477532</v>
+      </c>
+      <c r="D12" s="2">
         <v>416278</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44540</v>
       </c>
       <c r="B13">
         <v>-80353</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>893810</v>
+      </c>
+      <c r="D13" s="2">
         <v>-974163</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44207</v>
       </c>
       <c r="B14">
         <v>779806</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>-80353</v>
+      </c>
+      <c r="D14" s="2">
         <v>860159</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44238</v>
       </c>
       <c r="B15">
         <v>-335203</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>779806</v>
+      </c>
+      <c r="D15" s="2">
         <v>-1115009</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44266</v>
       </c>
       <c r="B16">
         <v>697845</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>-335203</v>
+      </c>
+      <c r="D16" s="2">
         <v>1033048</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>44297</v>
       </c>
       <c r="B17">
         <v>793163</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>697845</v>
+      </c>
+      <c r="D17" s="2">
         <v>95318</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>44327</v>
       </c>
       <c r="B18">
         <v>485070</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>793163</v>
+      </c>
+      <c r="D18" s="2">
         <v>-308093</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>44358</v>
       </c>
       <c r="B19">
         <v>584122</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>485070</v>
+      </c>
+      <c r="D19" s="2">
         <v>99052</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>44388</v>
       </c>
       <c r="B20">
         <v>62729</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>584122</v>
+      </c>
+      <c r="D20" s="2">
         <v>-521393</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>44419</v>
       </c>
       <c r="B21">
         <v>668179</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>62729</v>
+      </c>
+      <c r="D21" s="2">
         <v>605450</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>44450</v>
       </c>
       <c r="B22">
         <v>899906</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>668179</v>
+      </c>
+      <c r="D22" s="2">
         <v>231727</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>44480</v>
       </c>
       <c r="B23">
         <v>834719</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>899906</v>
+      </c>
+      <c r="D23" s="2">
         <v>-65187</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>44511</v>
       </c>
       <c r="B24">
         <v>132003</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>834719</v>
+      </c>
+      <c r="D24" s="2">
         <v>-702716</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>44541</v>
       </c>
       <c r="B25">
         <v>309978</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>132003</v>
+      </c>
+      <c r="D25" s="2">
         <v>177975</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>44208</v>
       </c>
       <c r="B26">
         <v>-755566</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>309978</v>
+      </c>
+      <c r="D26" s="2">
         <v>-1065544</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>44239</v>
       </c>
       <c r="B27">
         <v>1170593</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>-755566</v>
+      </c>
+      <c r="D27" s="2">
         <v>1926159</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>44267</v>
       </c>
       <c r="B28">
         <v>252788</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>1170593</v>
+      </c>
+      <c r="D28" s="2">
         <v>-917805</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>44298</v>
       </c>
       <c r="B29">
         <v>1151518</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>252788</v>
+      </c>
+      <c r="D29" s="2">
         <v>898730</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>44328</v>
       </c>
       <c r="B30">
         <v>817256</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>1151518</v>
+      </c>
+      <c r="D30" s="2">
         <v>-334262</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>44359</v>
       </c>
       <c r="B31">
         <v>570757</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>817256</v>
+      </c>
+      <c r="D31" s="2">
         <v>-246499</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>44389</v>
       </c>
       <c r="B32">
         <v>506702</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>570757</v>
+      </c>
+      <c r="D32" s="2">
         <v>-64055</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>44420</v>
       </c>
       <c r="B33">
         <v>-1022534</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>506702</v>
+      </c>
+      <c r="D33" s="2">
         <v>-1529236</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>44451</v>
       </c>
       <c r="B34">
         <v>475062</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>-1022534</v>
+      </c>
+      <c r="D34" s="2">
         <v>1497596</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>44481</v>
       </c>
       <c r="B35">
         <v>779976</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>475062</v>
+      </c>
+      <c r="D35" s="2">
         <v>304914</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>44512</v>
       </c>
       <c r="B36">
         <v>144175</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>779976</v>
+      </c>
+      <c r="D36" s="2">
         <v>-635801</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>44542</v>
       </c>
       <c r="B37">
         <v>542494</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>144175</v>
+      </c>
+      <c r="D37" s="2">
         <v>398319</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>44209</v>
       </c>
       <c r="B38">
         <v>359333</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>542494</v>
+      </c>
+      <c r="D38" s="2">
         <v>-183161</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>36526</v>
       </c>
       <c r="B39">
         <v>321469</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>359333</v>
+      </c>
+      <c r="D39" s="2">
         <v>-37864</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>44268</v>
       </c>
       <c r="B40">
         <v>67780</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>321469</v>
+      </c>
+      <c r="D40" s="2">
         <v>-253689</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>44299</v>
       </c>
       <c r="B41">
         <v>471435</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>67780</v>
+      </c>
+      <c r="D41" s="2">
         <v>403655</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>44329</v>
       </c>
       <c r="B42">
         <v>565603</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>471435</v>
+      </c>
+      <c r="D42" s="2">
         <v>94168</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>44360</v>
       </c>
       <c r="B43">
         <v>872480</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>565603</v>
+      </c>
+      <c r="D43" s="2">
         <v>306877</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>44390</v>
       </c>
       <c r="B44">
         <v>789480</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>872480</v>
+      </c>
+      <c r="D44" s="2">
         <v>-83000</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44421</v>
       </c>
       <c r="B45">
         <v>999942</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>789480</v>
+      </c>
+      <c r="D45" s="2">
         <v>210462</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44452</v>
       </c>
       <c r="B46">
         <v>-1196225</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>999942</v>
+      </c>
+      <c r="D46" s="2">
         <v>-2196167</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>44482</v>
       </c>
       <c r="B47">
         <v>268997</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>-1196225</v>
+      </c>
+      <c r="D47" s="2">
         <v>1465222</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>44513</v>
       </c>
       <c r="B48">
         <v>-687986</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>268997</v>
+      </c>
+      <c r="D48" s="2">
         <v>-956983</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>44543</v>
       </c>
       <c r="B49">
         <v>1150461</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>-687986</v>
+      </c>
+      <c r="D49" s="2">
         <v>1838447</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>44210</v>
       </c>
       <c r="B50">
         <v>682458</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>1150461</v>
+      </c>
+      <c r="D50" s="2">
         <v>-468003</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>44241</v>
       </c>
       <c r="B51">
         <v>617856</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>682458</v>
+      </c>
+      <c r="D51" s="2">
         <v>-64602</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>44269</v>
       </c>
       <c r="B52">
         <v>824098</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>617856</v>
+      </c>
+      <c r="D52" s="2">
         <v>206242</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>44300</v>
       </c>
       <c r="B53">
         <v>581943</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>824098</v>
+      </c>
+      <c r="D53" s="2">
         <v>-242155</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>44330</v>
       </c>
       <c r="B54">
         <v>132864</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>581943</v>
+      </c>
+      <c r="D54" s="2">
         <v>-449079</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>44361</v>
       </c>
       <c r="B55">
         <v>448062</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C55">
+        <f t="shared" si="0"/>
+        <v>132864</v>
+      </c>
+      <c r="D55" s="2">
         <v>315198</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>44391</v>
       </c>
       <c r="B56">
         <v>689161</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>448062</v>
+      </c>
+      <c r="D56" s="2">
         <v>241099</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>44422</v>
       </c>
       <c r="B57">
         <v>800701</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>689161</v>
+      </c>
+      <c r="D57" s="2">
         <v>111540</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>44453</v>
       </c>
       <c r="B58">
         <v>1166643</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C58">
+        <f t="shared" si="0"/>
+        <v>800701</v>
+      </c>
+      <c r="D58" s="2">
         <v>365942</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>44483</v>
       </c>
       <c r="B59">
         <v>947333</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C59">
+        <f t="shared" si="0"/>
+        <v>1166643</v>
+      </c>
+      <c r="D59" s="2">
         <v>-219310</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>44514</v>
       </c>
       <c r="B60">
         <v>578668</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C60">
+        <f t="shared" si="0"/>
+        <v>947333</v>
+      </c>
+      <c r="D60" s="2">
         <v>-368665</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>44544</v>
       </c>
       <c r="B61">
         <v>988505</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C61">
+        <f t="shared" si="0"/>
+        <v>578668</v>
+      </c>
+      <c r="D61" s="2">
         <v>409837</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>44211</v>
       </c>
       <c r="B62">
         <v>1139715</v>
       </c>
-      <c r="C62" s="2">
+      <c r="C62">
+        <f t="shared" si="0"/>
+        <v>988505</v>
+      </c>
+      <c r="D62" s="2">
         <v>151210</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>44242</v>
       </c>
       <c r="B63">
         <v>1029471</v>
       </c>
-      <c r="C63" s="2">
+      <c r="C63">
+        <f t="shared" si="0"/>
+        <v>1139715</v>
+      </c>
+      <c r="D63" s="2">
         <v>-110244</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>44270</v>
       </c>
       <c r="B64">
         <v>687533</v>
       </c>
-      <c r="C64" s="2">
+      <c r="C64">
+        <f t="shared" si="0"/>
+        <v>1029471</v>
+      </c>
+      <c r="D64" s="2">
         <v>-341938</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>44301</v>
       </c>
       <c r="B65">
         <v>-524626</v>
       </c>
-      <c r="C65" s="2">
+      <c r="C65">
+        <f t="shared" si="0"/>
+        <v>687533</v>
+      </c>
+      <c r="D65" s="2">
         <v>-1212159</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>44331</v>
       </c>
       <c r="B66">
         <v>158620</v>
       </c>
-      <c r="C66" s="2">
+      <c r="C66">
+        <f t="shared" si="0"/>
+        <v>-524626</v>
+      </c>
+      <c r="D66" s="2">
         <v>683246</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>44362</v>
       </c>
       <c r="B67">
         <v>87795</v>
       </c>
-      <c r="C67" s="2">
+      <c r="C67">
+        <f t="shared" si="0"/>
+        <v>158620</v>
+      </c>
+      <c r="D67" s="2">
         <v>-70825</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>44392</v>
       </c>
       <c r="B68">
         <v>423389</v>
       </c>
-      <c r="C68" s="2">
+      <c r="C68">
+        <f t="shared" ref="C68:C87" si="1">B67</f>
+        <v>87795</v>
+      </c>
+      <c r="D68" s="2">
         <v>335594</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>44423</v>
       </c>
       <c r="B69">
         <v>840723</v>
       </c>
-      <c r="C69" s="2">
+      <c r="C69">
+        <f t="shared" si="1"/>
+        <v>423389</v>
+      </c>
+      <c r="D69" s="2">
         <v>417334</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>44454</v>
       </c>
       <c r="B70">
         <v>568529</v>
       </c>
-      <c r="C70" s="2">
+      <c r="C70">
+        <f t="shared" si="1"/>
+        <v>840723</v>
+      </c>
+      <c r="D70" s="2">
         <v>-272194</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>44484</v>
       </c>
       <c r="B71">
         <v>332067</v>
       </c>
-      <c r="C71" s="2">
+      <c r="C71">
+        <f t="shared" si="1"/>
+        <v>568529</v>
+      </c>
+      <c r="D71" s="2">
         <v>-236462</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>44515</v>
       </c>
       <c r="B72">
         <v>989499</v>
       </c>
-      <c r="C72" s="2">
+      <c r="C72">
+        <f t="shared" si="1"/>
+        <v>332067</v>
+      </c>
+      <c r="D72" s="2">
         <v>657432</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>44545</v>
       </c>
       <c r="B73">
         <v>778237</v>
       </c>
-      <c r="C73" s="2">
+      <c r="C73">
+        <f t="shared" si="1"/>
+        <v>989499</v>
+      </c>
+      <c r="D73" s="2">
         <v>-211262</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>44212</v>
       </c>
       <c r="B74">
         <v>650000</v>
       </c>
-      <c r="C74" s="2">
+      <c r="C74">
+        <f t="shared" si="1"/>
+        <v>778237</v>
+      </c>
+      <c r="D74" s="2">
         <v>-128237</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>44243</v>
       </c>
       <c r="B75">
         <v>-1100387</v>
       </c>
-      <c r="C75" s="2">
+      <c r="C75">
+        <f t="shared" si="1"/>
+        <v>650000</v>
+      </c>
+      <c r="D75" s="2">
         <v>-1750387</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>44271</v>
       </c>
       <c r="B76">
         <v>-174946</v>
       </c>
-      <c r="C76" s="2">
+      <c r="C76">
+        <f t="shared" si="1"/>
+        <v>-1100387</v>
+      </c>
+      <c r="D76" s="2">
         <v>925441</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>44302</v>
       </c>
       <c r="B77">
         <v>757143</v>
       </c>
-      <c r="C77" s="2">
+      <c r="C77">
+        <f t="shared" si="1"/>
+        <v>-174946</v>
+      </c>
+      <c r="D77" s="2">
         <v>932089</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>44332</v>
       </c>
       <c r="B78">
         <v>445709</v>
       </c>
-      <c r="C78" s="2">
+      <c r="C78">
+        <f t="shared" si="1"/>
+        <v>757143</v>
+      </c>
+      <c r="D78" s="2">
         <v>-311434</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>44363</v>
       </c>
       <c r="B79">
         <v>712961</v>
       </c>
-      <c r="C79" s="2">
+      <c r="C79">
+        <f t="shared" si="1"/>
+        <v>445709</v>
+      </c>
+      <c r="D79" s="2">
         <v>267252</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>44393</v>
       </c>
       <c r="B80">
         <v>-1163797</v>
       </c>
-      <c r="C80" s="2">
+      <c r="C80">
+        <f t="shared" si="1"/>
+        <v>712961</v>
+      </c>
+      <c r="D80" s="2">
         <v>-1876758</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>44424</v>
       </c>
       <c r="B81">
         <v>569899</v>
       </c>
-      <c r="C81" s="2">
+      <c r="C81">
+        <f t="shared" si="1"/>
+        <v>-1163797</v>
+      </c>
+      <c r="D81" s="2">
         <v>1733696</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>44455</v>
       </c>
       <c r="B82">
         <v>768450</v>
       </c>
-      <c r="C82" s="2">
+      <c r="C82">
+        <f t="shared" si="1"/>
+        <v>569899</v>
+      </c>
+      <c r="D82" s="2">
         <v>198551</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>44485</v>
       </c>
       <c r="B83">
         <v>102685</v>
       </c>
-      <c r="C83" s="2">
+      <c r="C83">
+        <f t="shared" si="1"/>
+        <v>768450</v>
+      </c>
+      <c r="D83" s="2">
         <v>-665765</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>44516</v>
       </c>
       <c r="B84">
         <v>795914</v>
       </c>
-      <c r="C84" s="2">
+      <c r="C84">
+        <f t="shared" si="1"/>
+        <v>102685</v>
+      </c>
+      <c r="D84" s="2">
         <v>693229</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>44546</v>
       </c>
       <c r="B85">
         <v>60988</v>
       </c>
-      <c r="C85" s="2">
+      <c r="C85">
+        <f t="shared" si="1"/>
+        <v>795914</v>
+      </c>
+      <c r="D85" s="2">
         <v>-734926</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>44213</v>
       </c>
       <c r="B86">
         <v>138230</v>
       </c>
-      <c r="C86" s="2">
+      <c r="C86">
+        <f t="shared" si="1"/>
+        <v>60988</v>
+      </c>
+      <c r="D86" s="2">
         <v>77242</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>44244</v>
       </c>
       <c r="B87">
         <v>671099</v>
       </c>
-      <c r="C87" s="2">
+      <c r="C87">
+        <f t="shared" si="1"/>
+        <v>138230</v>
+      </c>
+      <c r="D87" s="2">
         <v>532869</v>
       </c>
     </row>
